--- a/Budget/budget-table.xlsx
+++ b/Budget/budget-table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prpen\Documents\Comms-Proposal\Budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9F8D721-F34E-4DD9-8348-D51A914A076E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48606A6-047E-4031-8A88-9EB040D623C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="12612" windowHeight="13776" xr2:uid="{95343980-7A4D-4FA6-A2AB-073246F37FEB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{95343980-7A4D-4FA6-A2AB-073246F37FEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget Breakdown" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>Phase 1</t>
   </si>
@@ -89,26 +89,39 @@
     <t>Technical Analyst</t>
   </si>
   <si>
-    <t>TOTAL:</t>
-  </si>
-  <si>
-    <t>Crowdstrike EDR Annual</t>
-  </si>
-  <si>
-    <t>City Wide Infrastructure</t>
-  </si>
-  <si>
     <t>CyberQuack Equipment</t>
   </si>
   <si>
-    <t>Continuous Monitoring and Improvement Upkeep</t>
+    <t>City-wide Infrastructure</t>
+  </si>
+  <si>
+    <t>Contingency Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crowdstrike EDR </t>
+  </si>
+  <si>
+    <t>Crowdstrike Renewal (Annual)</t>
+  </si>
+  <si>
+    <t>Continuous Monitoring and Improvement Upkeep (Annual)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Management Console </t>
+  </si>
+  <si>
+    <t>Server Software Licenses</t>
+  </si>
+  <si>
+    <t>ESTIMATED TOTAL COST:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-1009]* #,##0.00_-;\-[$$-1009]* #,##0.00_-;_-[$$-1009]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -246,7 +259,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -270,39 +283,51 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -622,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD485426-59E1-4CAD-8F88-44FAACD94B17}">
-  <dimension ref="D3:N39"/>
+  <dimension ref="D3:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -635,31 +660,31 @@
     <col min="7" max="7" width="25.6640625" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="26.21875" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D3" s="19"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="30"/>
+      <c r="I3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="17" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="31" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="4:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="20"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="9" t="s">
         <v>2</v>
       </c>
@@ -678,7 +703,7 @@
       <c r="J4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="18"/>
+      <c r="K4" s="32"/>
       <c r="M4" s="2"/>
       <c r="N4" s="1"/>
     </row>
@@ -693,7 +718,7 @@
         <v>6000</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H5" s="5">
         <v>0</v>
@@ -817,14 +842,14 @@
       </c>
     </row>
     <row r="14" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
     </row>
     <row r="15" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D15" s="6" t="s">
@@ -837,13 +862,13 @@
         <v>12000</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" s="8">
         <v>120000</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J15" s="8">
         <v>924.95</v>
@@ -858,10 +883,18 @@
       <c r="F16" s="7">
         <v>10000</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="8"/>
+      <c r="G16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="24">
+        <v>20000</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="8">
+        <v>3799</v>
+      </c>
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.3">
@@ -879,324 +912,343 @@
       <c r="K17" s="8"/>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D18" s="25"/>
-      <c r="E18" s="25" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="18">
         <v>6000</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D20" s="25"/>
-      <c r="E20" s="25" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="18">
         <v>5000</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D21" s="25"/>
-      <c r="E21" s="25" t="s">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="18">
         <v>4000</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D23" s="25"/>
-      <c r="E23" s="25" t="s">
+      <c r="D23" s="17"/>
+      <c r="E23" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="18">
         <f>F15+F16+F17+F18+F19+F20+F21+F22</f>
         <v>45000</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="27">
+      <c r="G23" s="17"/>
+      <c r="H23" s="19">
         <f>H15+H16+H17</f>
-        <v>120000</v>
-      </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="27">
+        <v>140000</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="19">
         <f>J15+J16+J17</f>
-        <v>924.95</v>
-      </c>
-      <c r="K23" s="27">
+        <v>4723.95</v>
+      </c>
+      <c r="K23" s="19">
         <f>J23+H23+F23</f>
-        <v>165924.95000000001</v>
+        <v>189723.95</v>
       </c>
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
     </row>
     <row r="25" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="21">
         <v>5000</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="22">
+        <v>1099</v>
+      </c>
+      <c r="K25" s="22"/>
     </row>
     <row r="26" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D26" s="28"/>
-      <c r="E26" s="28" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="21">
         <v>4000</v>
       </c>
-      <c r="G26" s="28"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
     </row>
     <row r="27" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D27" s="28"/>
-      <c r="E27" s="28" t="s">
+      <c r="D27" s="20"/>
+      <c r="E27" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="21">
         <v>3000</v>
       </c>
-      <c r="G27" s="28"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
     </row>
     <row r="28" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D28" s="28"/>
-      <c r="E28" s="28" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="21">
         <v>1500</v>
       </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
     </row>
     <row r="29" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
     </row>
     <row r="30" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D30" s="28"/>
-      <c r="E30" s="28" t="s">
+      <c r="D30" s="20"/>
+      <c r="E30" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="21">
         <v>3000</v>
       </c>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
     </row>
     <row r="31" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D31" s="28"/>
-      <c r="E31" s="28" t="s">
+      <c r="D31" s="20"/>
+      <c r="E31" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="21">
         <v>2000</v>
       </c>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
     </row>
     <row r="32" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D33" s="28"/>
-      <c r="E33" s="28" t="s">
+      <c r="D33" s="20"/>
+      <c r="E33" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="21">
         <f>F26+F27+F28+F25</f>
         <v>13500</v>
       </c>
-      <c r="G33" s="28"/>
-      <c r="H33" s="30">
-        <f>H26+H27+H28+H25</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="28"/>
-      <c r="J33" s="30">
+      <c r="G33" s="20"/>
+      <c r="H33" s="22">
+        <v>6500</v>
+      </c>
+      <c r="I33" s="20"/>
+      <c r="J33" s="22">
         <f>J26+J27+J28+J25</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="30">
+        <v>1099</v>
+      </c>
+      <c r="K33" s="22">
         <f>J33+H33+F33</f>
-        <v>13500</v>
+        <v>21099</v>
       </c>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
     </row>
     <row r="35" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="18">
+        <v>1299</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="26">
-        <v>1299</v>
-      </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
+      <c r="J35" s="19">
+        <v>924.95</v>
+      </c>
+      <c r="K35" s="19"/>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D36" s="25"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D37" s="25"/>
-      <c r="E37" s="25" t="s">
+      <c r="D37" s="17"/>
+      <c r="E37" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F37" s="18">
         <f>F35++F36</f>
         <v>1299</v>
       </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26">
+      <c r="G37" s="17"/>
+      <c r="H37" s="18">
         <f>H35++H36</f>
         <v>0</v>
       </c>
-      <c r="I37" s="25"/>
-      <c r="J37" s="26">
+      <c r="I37" s="17"/>
+      <c r="J37" s="18">
         <f>J35++J36</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="27">
+        <v>924.95</v>
+      </c>
+      <c r="K37" s="19">
         <f>J37+H37+F37</f>
-        <v>1299</v>
+        <v>2223.9499999999998</v>
       </c>
     </row>
     <row r="38" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
     </row>
     <row r="39" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" s="24">
-        <f>SUM(K5:K37)</f>
-        <v>209723.95</v>
-      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" s="35">
+        <f>SUM(K6:K38)</f>
+        <v>242046.90000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
